--- a/biology/Botanique/Robert_Hartig/Robert_Hartig.xlsx
+++ b/biology/Botanique/Robert_Hartig/Robert_Hartig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Hartig, né Heinrich Julius Adolph Robert Hartig le 30 mai 1839 à Brunswick, mort le 9 octobre 1901 à Munich, est un mycologue et un scientifique forestier allemand.
 Il est considéré comme le fondateur de la pathologie forestière.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Hartig fit ses études au Collegium Carolinum de Brunswick, ainsi qu'à Berlin. En 1878, il fut nommé professeur de botanique à l'université de Munich.
-Robert Hartig contribua de manière significative aux connaissances en pathologie végétale. Avant ses recherches sur les stades progressifs des maladies des plantes, peu de choses sinon rien n'avait été fait dans ce domaine, si bien que Robert Hartig peut être considéré comme le fondateur de la pathologie des arbres[1].
+Robert Hartig contribua de manière significative aux connaissances en pathologie végétale. Avant ses recherches sur les stades progressifs des maladies des plantes, peu de choses sinon rien n'avait été fait dans ce domaine, si bien que Robert Hartig peut être considéré comme le fondateur de la pathologie des arbres.
 Robert Hartig travailla à Eberswalde (1867–1878) et à Munich (1878–1901), principalement en pathologie forestière. Il décrivit le réseau de Hartig, réseau d'hyphes qui se développe dans les racines des plantes.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Vergleichende Untersuchungen über den Wachsthumsgang und Ertrag der Rothbuche und Eiche im Spessart, der Rothbuche im östlichen Wesergebirge, der Kiefer in Pommern und der Weißtanne im Schwarzwalde, Stuttgart 1865.
 (de) Die Rentabilität der Fichtennutzholz- und Buchenbrennholzwirthschaft im Harze und im Wesergebirge. Stuttgart 1868.
@@ -589,7 +605,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Hartig est le fils de Theodor Hartig (1805–1880) et le petit-fils de Georg Ludwig Hartig (1764–1837).
 </t>
